--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P519"/>
+  <dimension ref="A1:P518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26372,56 +26372,6 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="519">
-      <c r="A519" s="2" t="n">
-        <v>44593</v>
-      </c>
-      <c r="B519" t="n">
-        <v>55</v>
-      </c>
-      <c r="C519" t="n">
-        <v>31</v>
-      </c>
-      <c r="D519" t="n">
-        <v>70</v>
-      </c>
-      <c r="E519" t="n">
-        <v>-51</v>
-      </c>
-      <c r="F519" t="n">
-        <v>-33</v>
-      </c>
-      <c r="G519" t="n">
-        <v>-99</v>
-      </c>
-      <c r="H519" t="n">
-        <v>-97</v>
-      </c>
-      <c r="I519" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J519" t="n">
-        <v>60</v>
-      </c>
-      <c r="K519" t="n">
-        <v>83</v>
-      </c>
-      <c r="L519" t="n">
-        <v>-53</v>
-      </c>
-      <c r="M519" t="n">
-        <v>3</v>
-      </c>
-      <c r="N519" t="n">
-        <v>8</v>
-      </c>
-      <c r="O519" t="n">
-        <v>61</v>
-      </c>
-      <c r="P519" t="n">
-        <v>-3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P518"/>
+  <dimension ref="A1:P519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26372,6 +26372,56 @@
         <v>-19</v>
       </c>
     </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B519" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C519" t="n">
+        <v>28</v>
+      </c>
+      <c r="D519" t="n">
+        <v>0</v>
+      </c>
+      <c r="E519" t="n">
+        <v>-39</v>
+      </c>
+      <c r="F519" t="n">
+        <v>-52</v>
+      </c>
+      <c r="G519" t="n">
+        <v>-7</v>
+      </c>
+      <c r="H519" t="n">
+        <v>-70</v>
+      </c>
+      <c r="I519" t="n">
+        <v>62</v>
+      </c>
+      <c r="J519" t="n">
+        <v>39</v>
+      </c>
+      <c r="K519" t="n">
+        <v>18</v>
+      </c>
+      <c r="L519" t="n">
+        <v>-51</v>
+      </c>
+      <c r="M519" t="n">
+        <v>2</v>
+      </c>
+      <c r="N519" t="n">
+        <v>-21</v>
+      </c>
+      <c r="O519" t="n">
+        <v>20</v>
+      </c>
+      <c r="P519" t="n">
+        <v>-24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -26377,49 +26377,49 @@
         <v>44593</v>
       </c>
       <c r="B519" t="n">
-        <v>-5</v>
+        <v>-25</v>
       </c>
       <c r="C519" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D519" t="n">
-        <v>0</v>
+        <v>-27</v>
       </c>
       <c r="E519" t="n">
-        <v>-39</v>
+        <v>-30</v>
       </c>
       <c r="F519" t="n">
-        <v>-52</v>
+        <v>-16</v>
       </c>
       <c r="G519" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="H519" t="n">
-        <v>-70</v>
+        <v>-27</v>
       </c>
       <c r="I519" t="n">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="J519" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="K519" t="n">
-        <v>18</v>
+        <v>-19</v>
       </c>
       <c r="L519" t="n">
-        <v>-51</v>
+        <v>-31</v>
       </c>
       <c r="M519" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="N519" t="n">
         <v>-21</v>
       </c>
       <c r="O519" t="n">
-        <v>20</v>
+        <v>-7</v>
       </c>
       <c r="P519" t="n">
-        <v>-24</v>
+        <v>-7</v>
       </c>
     </row>
   </sheetData>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -26377,49 +26377,49 @@
         <v>44593</v>
       </c>
       <c r="B519" t="n">
-        <v>-25</v>
+        <v>-32</v>
       </c>
       <c r="C519" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D519" t="n">
-        <v>-27</v>
+        <v>-32</v>
       </c>
       <c r="E519" t="n">
-        <v>-30</v>
+        <v>-47</v>
       </c>
       <c r="F519" t="n">
-        <v>-16</v>
+        <v>-23</v>
       </c>
       <c r="G519" t="n">
-        <v>-4</v>
+        <v>-14</v>
       </c>
       <c r="H519" t="n">
-        <v>-27</v>
+        <v>-24</v>
       </c>
       <c r="I519" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="J519" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K519" t="n">
-        <v>-19</v>
+        <v>-22</v>
       </c>
       <c r="L519" t="n">
         <v>-31</v>
       </c>
       <c r="M519" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="N519" t="n">
-        <v>-21</v>
+        <v>-26</v>
       </c>
       <c r="O519" t="n">
         <v>-7</v>
       </c>
       <c r="P519" t="n">
-        <v>-7</v>
+        <v>-5</v>
       </c>
     </row>
   </sheetData>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P519"/>
+  <dimension ref="A1:P520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26422,6 +26422,56 @@
         <v>-5</v>
       </c>
     </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B520" t="n">
+        <v>-63</v>
+      </c>
+      <c r="C520" t="n">
+        <v>-25</v>
+      </c>
+      <c r="D520" t="n">
+        <v>-68</v>
+      </c>
+      <c r="E520" t="n">
+        <v>-40</v>
+      </c>
+      <c r="F520" t="n">
+        <v>-118</v>
+      </c>
+      <c r="G520" t="n">
+        <v>2</v>
+      </c>
+      <c r="H520" t="n">
+        <v>56</v>
+      </c>
+      <c r="I520" t="n">
+        <v>-54</v>
+      </c>
+      <c r="J520" t="n">
+        <v>-11</v>
+      </c>
+      <c r="K520" t="n">
+        <v>-44</v>
+      </c>
+      <c r="L520" t="n">
+        <v>35</v>
+      </c>
+      <c r="M520" t="n">
+        <v>-14</v>
+      </c>
+      <c r="N520" t="n">
+        <v>-47</v>
+      </c>
+      <c r="O520" t="n">
+        <v>-22</v>
+      </c>
+      <c r="P520" t="n">
+        <v>-6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P520"/>
+  <dimension ref="A1:P519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26422,56 +26422,6 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="520">
-      <c r="A520" s="2" t="n">
-        <v>44621</v>
-      </c>
-      <c r="B520" t="n">
-        <v>-63</v>
-      </c>
-      <c r="C520" t="n">
-        <v>-25</v>
-      </c>
-      <c r="D520" t="n">
-        <v>-68</v>
-      </c>
-      <c r="E520" t="n">
-        <v>-40</v>
-      </c>
-      <c r="F520" t="n">
-        <v>-118</v>
-      </c>
-      <c r="G520" t="n">
-        <v>2</v>
-      </c>
-      <c r="H520" t="n">
-        <v>56</v>
-      </c>
-      <c r="I520" t="n">
-        <v>-54</v>
-      </c>
-      <c r="J520" t="n">
-        <v>-11</v>
-      </c>
-      <c r="K520" t="n">
-        <v>-44</v>
-      </c>
-      <c r="L520" t="n">
-        <v>35</v>
-      </c>
-      <c r="M520" t="n">
-        <v>-14</v>
-      </c>
-      <c r="N520" t="n">
-        <v>-47</v>
-      </c>
-      <c r="O520" t="n">
-        <v>-22</v>
-      </c>
-      <c r="P520" t="n">
-        <v>-6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P519"/>
+  <dimension ref="A1:P520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26422,6 +26422,56 @@
         <v>-5</v>
       </c>
     </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B520" t="n">
+        <v>-54</v>
+      </c>
+      <c r="C520" t="n">
+        <v>-27</v>
+      </c>
+      <c r="D520" t="n">
+        <v>-48</v>
+      </c>
+      <c r="E520" t="n">
+        <v>-58</v>
+      </c>
+      <c r="F520" t="n">
+        <v>-47</v>
+      </c>
+      <c r="G520" t="n">
+        <v>-12</v>
+      </c>
+      <c r="H520" t="n">
+        <v>-9</v>
+      </c>
+      <c r="I520" t="n">
+        <v>-3</v>
+      </c>
+      <c r="J520" t="n">
+        <v>-16</v>
+      </c>
+      <c r="K520" t="n">
+        <v>-33</v>
+      </c>
+      <c r="L520" t="n">
+        <v>-26</v>
+      </c>
+      <c r="M520" t="n">
+        <v>-13</v>
+      </c>
+      <c r="N520" t="n">
+        <v>-39</v>
+      </c>
+      <c r="O520" t="n">
+        <v>-9</v>
+      </c>
+      <c r="P520" t="n">
+        <v>-30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P520"/>
+  <dimension ref="A1:P521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26472,6 +26472,56 @@
         <v>-30</v>
       </c>
     </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B521" t="n">
+        <v>-11</v>
+      </c>
+      <c r="C521" t="n">
+        <v>41</v>
+      </c>
+      <c r="D521" t="n">
+        <v>-22</v>
+      </c>
+      <c r="E521" t="n">
+        <v>17</v>
+      </c>
+      <c r="F521" t="n">
+        <v>-77</v>
+      </c>
+      <c r="G521" t="n">
+        <v>89</v>
+      </c>
+      <c r="H521" t="n">
+        <v>35</v>
+      </c>
+      <c r="I521" t="n">
+        <v>53</v>
+      </c>
+      <c r="J521" t="n">
+        <v>-7</v>
+      </c>
+      <c r="K521" t="n">
+        <v>-24</v>
+      </c>
+      <c r="L521" t="n">
+        <v>34</v>
+      </c>
+      <c r="M521" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N521" t="n">
+        <v>-5</v>
+      </c>
+      <c r="O521" t="n">
+        <v>-17</v>
+      </c>
+      <c r="P521" t="n">
+        <v>-15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -26477,49 +26477,49 @@
         <v>44652</v>
       </c>
       <c r="B521" t="n">
+        <v>-17</v>
+      </c>
+      <c r="C521" t="n">
+        <v>42</v>
+      </c>
+      <c r="D521" t="n">
+        <v>-20</v>
+      </c>
+      <c r="E521" t="n">
+        <v>-22</v>
+      </c>
+      <c r="F521" t="n">
+        <v>-32</v>
+      </c>
+      <c r="G521" t="n">
+        <v>24</v>
+      </c>
+      <c r="H521" t="n">
+        <v>6</v>
+      </c>
+      <c r="I521" t="n">
+        <v>18</v>
+      </c>
+      <c r="J521" t="n">
+        <v>-5</v>
+      </c>
+      <c r="K521" t="n">
         <v>-11</v>
       </c>
-      <c r="C521" t="n">
-        <v>41</v>
-      </c>
-      <c r="D521" t="n">
-        <v>-22</v>
-      </c>
-      <c r="E521" t="n">
-        <v>17</v>
-      </c>
-      <c r="F521" t="n">
-        <v>-77</v>
-      </c>
-      <c r="G521" t="n">
-        <v>89</v>
-      </c>
-      <c r="H521" t="n">
-        <v>35</v>
-      </c>
-      <c r="I521" t="n">
-        <v>53</v>
-      </c>
-      <c r="J521" t="n">
-        <v>-7</v>
-      </c>
-      <c r="K521" t="n">
-        <v>-24</v>
-      </c>
       <c r="L521" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="M521" t="n">
-        <v>-5</v>
+        <v>-11</v>
       </c>
       <c r="N521" t="n">
-        <v>-5</v>
+        <v>-18</v>
       </c>
       <c r="O521" t="n">
-        <v>-17</v>
+        <v>-3</v>
       </c>
       <c r="P521" t="n">
-        <v>-15</v>
+        <v>-25</v>
       </c>
     </row>
   </sheetData>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -26477,46 +26477,46 @@
         <v>44652</v>
       </c>
       <c r="B521" t="n">
-        <v>-17</v>
+        <v>-11</v>
       </c>
       <c r="C521" t="n">
         <v>42</v>
       </c>
       <c r="D521" t="n">
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="E521" t="n">
-        <v>-22</v>
+        <v>-14</v>
       </c>
       <c r="F521" t="n">
-        <v>-32</v>
+        <v>-33</v>
       </c>
       <c r="G521" t="n">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="H521" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I521" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="J521" t="n">
         <v>-5</v>
       </c>
       <c r="K521" t="n">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="L521" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M521" t="n">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="N521" t="n">
-        <v>-18</v>
+        <v>-13</v>
       </c>
       <c r="O521" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="P521" t="n">
         <v>-25</v>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P521"/>
+  <dimension ref="A1:P522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26522,6 +26522,56 @@
         <v>-25</v>
       </c>
     </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B522" t="n">
+        <v>15</v>
+      </c>
+      <c r="C522" t="n">
+        <v>21</v>
+      </c>
+      <c r="D522" t="n">
+        <v>24</v>
+      </c>
+      <c r="E522" t="n">
+        <v>-129</v>
+      </c>
+      <c r="F522" t="n">
+        <v>46</v>
+      </c>
+      <c r="G522" t="n">
+        <v>-192</v>
+      </c>
+      <c r="H522" t="n">
+        <v>-65</v>
+      </c>
+      <c r="I522" t="n">
+        <v>-127</v>
+      </c>
+      <c r="J522" t="n">
+        <v>16</v>
+      </c>
+      <c r="K522" t="n">
+        <v>39</v>
+      </c>
+      <c r="L522" t="n">
+        <v>-57</v>
+      </c>
+      <c r="M522" t="n">
+        <v>-8</v>
+      </c>
+      <c r="N522" t="n">
+        <v>-5</v>
+      </c>
+      <c r="O522" t="n">
+        <v>28</v>
+      </c>
+      <c r="P522" t="n">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -26527,49 +26527,49 @@
         <v>44682</v>
       </c>
       <c r="B522" t="n">
+        <v>14</v>
+      </c>
+      <c r="C522" t="n">
+        <v>25</v>
+      </c>
+      <c r="D522" t="n">
+        <v>22</v>
+      </c>
+      <c r="E522" t="n">
+        <v>-52</v>
+      </c>
+      <c r="F522" t="n">
+        <v>32</v>
+      </c>
+      <c r="G522" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H522" t="n">
+        <v>-40</v>
+      </c>
+      <c r="I522" t="n">
+        <v>-60</v>
+      </c>
+      <c r="J522" t="n">
+        <v>9</v>
+      </c>
+      <c r="K522" t="n">
+        <v>21</v>
+      </c>
+      <c r="L522" t="n">
+        <v>-31</v>
+      </c>
+      <c r="M522" t="n">
+        <v>1</v>
+      </c>
+      <c r="N522" t="n">
+        <v>6</v>
+      </c>
+      <c r="O522" t="n">
         <v>15</v>
       </c>
-      <c r="C522" t="n">
-        <v>21</v>
-      </c>
-      <c r="D522" t="n">
-        <v>24</v>
-      </c>
-      <c r="E522" t="n">
-        <v>-129</v>
-      </c>
-      <c r="F522" t="n">
-        <v>46</v>
-      </c>
-      <c r="G522" t="n">
-        <v>-192</v>
-      </c>
-      <c r="H522" t="n">
-        <v>-65</v>
-      </c>
-      <c r="I522" t="n">
-        <v>-127</v>
-      </c>
-      <c r="J522" t="n">
-        <v>16</v>
-      </c>
-      <c r="K522" t="n">
-        <v>39</v>
-      </c>
-      <c r="L522" t="n">
-        <v>-57</v>
-      </c>
-      <c r="M522" t="n">
-        <v>-8</v>
-      </c>
-      <c r="N522" t="n">
-        <v>-5</v>
-      </c>
-      <c r="O522" t="n">
-        <v>28</v>
-      </c>
       <c r="P522" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P522"/>
+  <dimension ref="A1:P521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26522,56 +26522,6 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="522">
-      <c r="A522" s="2" t="n">
-        <v>44682</v>
-      </c>
-      <c r="B522" t="n">
-        <v>14</v>
-      </c>
-      <c r="C522" t="n">
-        <v>25</v>
-      </c>
-      <c r="D522" t="n">
-        <v>22</v>
-      </c>
-      <c r="E522" t="n">
-        <v>-52</v>
-      </c>
-      <c r="F522" t="n">
-        <v>32</v>
-      </c>
-      <c r="G522" t="n">
-        <v>-100</v>
-      </c>
-      <c r="H522" t="n">
-        <v>-40</v>
-      </c>
-      <c r="I522" t="n">
-        <v>-60</v>
-      </c>
-      <c r="J522" t="n">
-        <v>9</v>
-      </c>
-      <c r="K522" t="n">
-        <v>21</v>
-      </c>
-      <c r="L522" t="n">
-        <v>-31</v>
-      </c>
-      <c r="M522" t="n">
-        <v>1</v>
-      </c>
-      <c r="N522" t="n">
-        <v>6</v>
-      </c>
-      <c r="O522" t="n">
-        <v>15</v>
-      </c>
-      <c r="P522" t="n">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P521"/>
+  <dimension ref="A1:P524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26522,6 +26522,96 @@
         <v>-25</v>
       </c>
     </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B522" t="inlineStr"/>
+      <c r="C522" t="inlineStr"/>
+      <c r="D522" t="inlineStr"/>
+      <c r="E522" t="inlineStr"/>
+      <c r="F522" t="inlineStr"/>
+      <c r="G522" t="inlineStr"/>
+      <c r="H522" t="inlineStr"/>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
+      <c r="L522" t="inlineStr"/>
+      <c r="M522" t="inlineStr"/>
+      <c r="N522" t="inlineStr"/>
+      <c r="O522" t="inlineStr"/>
+      <c r="P522" t="inlineStr"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B523" t="inlineStr"/>
+      <c r="C523" t="inlineStr"/>
+      <c r="D523" t="inlineStr"/>
+      <c r="E523" t="inlineStr"/>
+      <c r="F523" t="inlineStr"/>
+      <c r="G523" t="inlineStr"/>
+      <c r="H523" t="inlineStr"/>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
+      <c r="L523" t="inlineStr"/>
+      <c r="M523" t="inlineStr"/>
+      <c r="N523" t="inlineStr"/>
+      <c r="O523" t="inlineStr"/>
+      <c r="P523" t="inlineStr"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B524" t="n">
+        <v>7</v>
+      </c>
+      <c r="C524" t="n">
+        <v>-9</v>
+      </c>
+      <c r="D524" t="n">
+        <v>0</v>
+      </c>
+      <c r="E524" t="n">
+        <v>12</v>
+      </c>
+      <c r="F524" t="n">
+        <v>-47</v>
+      </c>
+      <c r="G524" t="n">
+        <v>45</v>
+      </c>
+      <c r="H524" t="n">
+        <v>-19</v>
+      </c>
+      <c r="I524" t="n">
+        <v>64</v>
+      </c>
+      <c r="J524" t="n">
+        <v>22</v>
+      </c>
+      <c r="K524" t="n">
+        <v>5</v>
+      </c>
+      <c r="L524" t="n">
+        <v>-9</v>
+      </c>
+      <c r="M524" t="n">
+        <v>7</v>
+      </c>
+      <c r="N524" t="n">
+        <v>9</v>
+      </c>
+      <c r="O524" t="n">
+        <v>-10</v>
+      </c>
+      <c r="P524" t="n">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P524"/>
+  <dimension ref="A1:P525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26612,6 +26612,56 @@
         <v>26</v>
       </c>
     </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B525" t="n">
+        <v>12</v>
+      </c>
+      <c r="C525" t="n">
+        <v>32</v>
+      </c>
+      <c r="D525" t="n">
+        <v>21</v>
+      </c>
+      <c r="E525" t="n">
+        <v>-29</v>
+      </c>
+      <c r="F525" t="n">
+        <v>15</v>
+      </c>
+      <c r="G525" t="n">
+        <v>-75</v>
+      </c>
+      <c r="H525" t="n">
+        <v>-13</v>
+      </c>
+      <c r="I525" t="n">
+        <v>-62</v>
+      </c>
+      <c r="J525" t="n">
+        <v>11</v>
+      </c>
+      <c r="K525" t="n">
+        <v>22</v>
+      </c>
+      <c r="L525" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M525" t="n">
+        <v>0</v>
+      </c>
+      <c r="N525" t="n">
+        <v>0</v>
+      </c>
+      <c r="O525" t="n">
+        <v>21</v>
+      </c>
+      <c r="P525" t="n">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P525"/>
+  <dimension ref="A1:P526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26662,6 +26662,56 @@
         <v>30</v>
       </c>
     </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B526" t="n">
+        <v>-26</v>
+      </c>
+      <c r="C526" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D526" t="n">
+        <v>-31</v>
+      </c>
+      <c r="E526" t="n">
+        <v>-54</v>
+      </c>
+      <c r="F526" t="n">
+        <v>-45</v>
+      </c>
+      <c r="G526" t="n">
+        <v>-26</v>
+      </c>
+      <c r="H526" t="n">
+        <v>-19</v>
+      </c>
+      <c r="I526" t="n">
+        <v>-8</v>
+      </c>
+      <c r="J526" t="n">
+        <v>0</v>
+      </c>
+      <c r="K526" t="n">
+        <v>-16</v>
+      </c>
+      <c r="L526" t="n">
+        <v>-28</v>
+      </c>
+      <c r="M526" t="n">
+        <v>-6</v>
+      </c>
+      <c r="N526" t="n">
+        <v>-22</v>
+      </c>
+      <c r="O526" t="n">
+        <v>-9</v>
+      </c>
+      <c r="P526" t="n">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P526"/>
+  <dimension ref="A1:P528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26712,6 +26712,76 @@
         <v>18</v>
       </c>
     </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="B527" t="inlineStr"/>
+      <c r="C527" t="inlineStr"/>
+      <c r="D527" t="inlineStr"/>
+      <c r="E527" t="inlineStr"/>
+      <c r="F527" t="inlineStr"/>
+      <c r="G527" t="inlineStr"/>
+      <c r="H527" t="inlineStr"/>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
+      <c r="L527" t="inlineStr"/>
+      <c r="M527" t="inlineStr"/>
+      <c r="N527" t="inlineStr"/>
+      <c r="O527" t="inlineStr"/>
+      <c r="P527" t="inlineStr"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B528" t="n">
+        <v>1</v>
+      </c>
+      <c r="C528" t="n">
+        <v>-31</v>
+      </c>
+      <c r="D528" t="n">
+        <v>3</v>
+      </c>
+      <c r="E528" t="n">
+        <v>-15</v>
+      </c>
+      <c r="F528" t="n">
+        <v>31</v>
+      </c>
+      <c r="G528" t="n">
+        <v>-31</v>
+      </c>
+      <c r="H528" t="n">
+        <v>-31</v>
+      </c>
+      <c r="I528" t="n">
+        <v>0</v>
+      </c>
+      <c r="J528" t="n">
+        <v>11</v>
+      </c>
+      <c r="K528" t="n">
+        <v>11</v>
+      </c>
+      <c r="L528" t="n">
+        <v>-26</v>
+      </c>
+      <c r="M528" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N528" t="n">
+        <v>-6</v>
+      </c>
+      <c r="O528" t="n">
+        <v>8</v>
+      </c>
+      <c r="P528" t="n">
+        <v>-34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P528"/>
+  <dimension ref="A1:P530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26782,6 +26782,106 @@
         <v>-34</v>
       </c>
     </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B529" t="n">
+        <v>-52</v>
+      </c>
+      <c r="C529" t="n">
+        <v>-29</v>
+      </c>
+      <c r="D529" t="n">
+        <v>-51</v>
+      </c>
+      <c r="E529" t="n">
+        <v>-52</v>
+      </c>
+      <c r="F529" t="n">
+        <v>-16</v>
+      </c>
+      <c r="G529" t="n">
+        <v>15</v>
+      </c>
+      <c r="H529" t="n">
+        <v>-8</v>
+      </c>
+      <c r="I529" t="n">
+        <v>23</v>
+      </c>
+      <c r="J529" t="n">
+        <v>-8</v>
+      </c>
+      <c r="K529" t="n">
+        <v>-31</v>
+      </c>
+      <c r="L529" t="n">
+        <v>-25</v>
+      </c>
+      <c r="M529" t="n">
+        <v>-10</v>
+      </c>
+      <c r="N529" t="n">
+        <v>-35</v>
+      </c>
+      <c r="O529" t="n">
+        <v>-16</v>
+      </c>
+      <c r="P529" t="n">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B530" t="n">
+        <v>-102</v>
+      </c>
+      <c r="C530" t="n">
+        <v>-61</v>
+      </c>
+      <c r="D530" t="n">
+        <v>-92</v>
+      </c>
+      <c r="E530" t="n">
+        <v>-176</v>
+      </c>
+      <c r="F530" t="n">
+        <v>-49</v>
+      </c>
+      <c r="G530" t="n">
+        <v>-80</v>
+      </c>
+      <c r="H530" t="n">
+        <v>-95</v>
+      </c>
+      <c r="I530" t="n">
+        <v>14</v>
+      </c>
+      <c r="J530" t="n">
+        <v>13</v>
+      </c>
+      <c r="K530" t="n">
+        <v>-32</v>
+      </c>
+      <c r="L530" t="n">
+        <v>-116</v>
+      </c>
+      <c r="M530" t="n">
+        <v>-25</v>
+      </c>
+      <c r="N530" t="n">
+        <v>-79</v>
+      </c>
+      <c r="O530" t="n">
+        <v>-13</v>
+      </c>
+      <c r="P530" t="n">
+        <v>-80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -26837,49 +26837,49 @@
         <v>44927</v>
       </c>
       <c r="B530" t="n">
-        <v>-102</v>
+        <v>-93</v>
       </c>
       <c r="C530" t="n">
-        <v>-61</v>
+        <v>-52</v>
       </c>
       <c r="D530" t="n">
-        <v>-92</v>
+        <v>-91</v>
       </c>
       <c r="E530" t="n">
-        <v>-176</v>
+        <v>-137</v>
       </c>
       <c r="F530" t="n">
+        <v>-34</v>
+      </c>
+      <c r="G530" t="n">
+        <v>-45</v>
+      </c>
+      <c r="H530" t="n">
+        <v>-65</v>
+      </c>
+      <c r="I530" t="n">
+        <v>20</v>
+      </c>
+      <c r="J530" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K530" t="n">
         <v>-49</v>
       </c>
-      <c r="G530" t="n">
-        <v>-80</v>
-      </c>
-      <c r="H530" t="n">
-        <v>-95</v>
-      </c>
-      <c r="I530" t="n">
-        <v>14</v>
-      </c>
-      <c r="J530" t="n">
-        <v>13</v>
-      </c>
-      <c r="K530" t="n">
-        <v>-32</v>
-      </c>
       <c r="L530" t="n">
-        <v>-116</v>
+        <v>-90</v>
       </c>
       <c r="M530" t="n">
-        <v>-25</v>
+        <v>-19</v>
       </c>
       <c r="N530" t="n">
-        <v>-79</v>
+        <v>-67</v>
       </c>
       <c r="O530" t="n">
-        <v>-13</v>
+        <v>-24</v>
       </c>
       <c r="P530" t="n">
-        <v>-80</v>
+        <v>-62</v>
       </c>
     </row>
   </sheetData>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P530"/>
+  <dimension ref="A1:P531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26837,49 +26837,99 @@
         <v>44927</v>
       </c>
       <c r="B530" t="n">
-        <v>-93</v>
+        <v>-79</v>
       </c>
       <c r="C530" t="n">
-        <v>-52</v>
+        <v>-39</v>
       </c>
       <c r="D530" t="n">
-        <v>-91</v>
+        <v>-81</v>
       </c>
       <c r="E530" t="n">
-        <v>-137</v>
+        <v>-112</v>
       </c>
       <c r="F530" t="n">
-        <v>-34</v>
+        <v>-31</v>
       </c>
       <c r="G530" t="n">
-        <v>-45</v>
+        <v>-44</v>
       </c>
       <c r="H530" t="n">
-        <v>-65</v>
+        <v>-53</v>
       </c>
       <c r="I530" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J530" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="K530" t="n">
-        <v>-49</v>
+        <v>-42</v>
       </c>
       <c r="L530" t="n">
-        <v>-90</v>
+        <v>-75</v>
       </c>
       <c r="M530" t="n">
-        <v>-19</v>
+        <v>-17</v>
       </c>
       <c r="N530" t="n">
-        <v>-67</v>
+        <v>-58</v>
       </c>
       <c r="O530" t="n">
         <v>-24</v>
       </c>
       <c r="P530" t="n">
-        <v>-62</v>
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B531" t="n">
+        <v>36</v>
+      </c>
+      <c r="C531" t="n">
+        <v>13</v>
+      </c>
+      <c r="D531" t="n">
+        <v>46</v>
+      </c>
+      <c r="E531" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F531" t="n">
+        <v>18</v>
+      </c>
+      <c r="G531" t="n">
+        <v>-101</v>
+      </c>
+      <c r="H531" t="n">
+        <v>-53</v>
+      </c>
+      <c r="I531" t="n">
+        <v>-48</v>
+      </c>
+      <c r="J531" t="n">
+        <v>18</v>
+      </c>
+      <c r="K531" t="n">
+        <v>49</v>
+      </c>
+      <c r="L531" t="n">
+        <v>-40</v>
+      </c>
+      <c r="M531" t="n">
+        <v>1</v>
+      </c>
+      <c r="N531" t="n">
+        <v>7</v>
+      </c>
+      <c r="O531" t="n">
+        <v>39</v>
+      </c>
+      <c r="P531" t="n">
+        <v>-2</v>
       </c>
     </row>
   </sheetData>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -26887,49 +26887,49 @@
         <v>44958</v>
       </c>
       <c r="B531" t="n">
-        <v>36</v>
+        <v>-24</v>
       </c>
       <c r="C531" t="n">
-        <v>13</v>
+        <v>-9</v>
       </c>
       <c r="D531" t="n">
-        <v>46</v>
+        <v>-18</v>
       </c>
       <c r="E531" t="n">
-        <v>-20</v>
+        <v>-23</v>
       </c>
       <c r="F531" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G531" t="n">
-        <v>-101</v>
+        <v>-50</v>
       </c>
       <c r="H531" t="n">
-        <v>-53</v>
+        <v>-24</v>
       </c>
       <c r="I531" t="n">
-        <v>-48</v>
+        <v>-27</v>
       </c>
       <c r="J531" t="n">
-        <v>18</v>
+        <v>-10</v>
       </c>
       <c r="K531" t="n">
-        <v>49</v>
+        <v>-7</v>
       </c>
       <c r="L531" t="n">
-        <v>-40</v>
+        <v>-32</v>
       </c>
       <c r="M531" t="n">
-        <v>1</v>
+        <v>-13</v>
       </c>
       <c r="N531" t="n">
-        <v>7</v>
+        <v>-24</v>
       </c>
       <c r="O531" t="n">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="P531" t="n">
-        <v>-2</v>
+        <v>-34</v>
       </c>
     </row>
   </sheetData>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -26887,49 +26887,49 @@
         <v>44958</v>
       </c>
       <c r="B531" t="n">
-        <v>-24</v>
+        <v>-34</v>
       </c>
       <c r="C531" t="n">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="D531" t="n">
-        <v>-18</v>
+        <v>-33</v>
       </c>
       <c r="E531" t="n">
-        <v>-23</v>
+        <v>-32</v>
       </c>
       <c r="F531" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G531" t="n">
-        <v>-50</v>
+        <v>-42</v>
       </c>
       <c r="H531" t="n">
         <v>-24</v>
       </c>
       <c r="I531" t="n">
-        <v>-27</v>
+        <v>-18</v>
       </c>
       <c r="J531" t="n">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="K531" t="n">
-        <v>-7</v>
+        <v>-23</v>
       </c>
       <c r="L531" t="n">
-        <v>-32</v>
+        <v>-36</v>
       </c>
       <c r="M531" t="n">
         <v>-13</v>
       </c>
       <c r="N531" t="n">
-        <v>-24</v>
+        <v>-27</v>
       </c>
       <c r="O531" t="n">
-        <v>6</v>
+        <v>-7</v>
       </c>
       <c r="P531" t="n">
-        <v>-34</v>
+        <v>-22</v>
       </c>
     </row>
   </sheetData>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -26887,19 +26887,19 @@
         <v>44958</v>
       </c>
       <c r="B531" t="n">
-        <v>-34</v>
+        <v>-36</v>
       </c>
       <c r="C531" t="n">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="D531" t="n">
-        <v>-33</v>
+        <v>-35</v>
       </c>
       <c r="E531" t="n">
-        <v>-32</v>
+        <v>-35</v>
       </c>
       <c r="F531" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G531" t="n">
         <v>-42</v>
@@ -26911,25 +26911,25 @@
         <v>-18</v>
       </c>
       <c r="J531" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="K531" t="n">
-        <v>-23</v>
+        <v>-25</v>
       </c>
       <c r="L531" t="n">
-        <v>-36</v>
+        <v>-37</v>
       </c>
       <c r="M531" t="n">
         <v>-13</v>
       </c>
       <c r="N531" t="n">
-        <v>-27</v>
+        <v>-28</v>
       </c>
       <c r="O531" t="n">
         <v>-7</v>
       </c>
       <c r="P531" t="n">
-        <v>-22</v>
+        <v>-24</v>
       </c>
     </row>
   </sheetData>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P531"/>
+  <dimension ref="A1:P532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26932,6 +26932,56 @@
         <v>-24</v>
       </c>
     </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B532" t="n">
+        <v>12</v>
+      </c>
+      <c r="C532" t="n">
+        <v>-22</v>
+      </c>
+      <c r="D532" t="n">
+        <v>17</v>
+      </c>
+      <c r="E532" t="n">
+        <v>15</v>
+      </c>
+      <c r="F532" t="n">
+        <v>53</v>
+      </c>
+      <c r="G532" t="n">
+        <v>-70</v>
+      </c>
+      <c r="H532" t="n">
+        <v>13</v>
+      </c>
+      <c r="I532" t="n">
+        <v>-84</v>
+      </c>
+      <c r="J532" t="n">
+        <v>-5</v>
+      </c>
+      <c r="K532" t="n">
+        <v>9</v>
+      </c>
+      <c r="L532" t="n">
+        <v>18</v>
+      </c>
+      <c r="M532" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N532" t="n">
+        <v>5</v>
+      </c>
+      <c r="O532" t="n">
+        <v>12</v>
+      </c>
+      <c r="P532" t="n">
+        <v>-45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -26937,49 +26937,49 @@
         <v>44986</v>
       </c>
       <c r="B532" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C532" t="n">
-        <v>-22</v>
+        <v>-20</v>
       </c>
       <c r="D532" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E532" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F532" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G532" t="n">
-        <v>-70</v>
+        <v>-58</v>
       </c>
       <c r="H532" t="n">
         <v>13</v>
       </c>
       <c r="I532" t="n">
-        <v>-84</v>
+        <v>-72</v>
       </c>
       <c r="J532" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="K532" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L532" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M532" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N532" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O532" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P532" t="n">
-        <v>-45</v>
+        <v>-41</v>
       </c>
     </row>
   </sheetData>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P532"/>
+  <dimension ref="A1:P533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26526,41 +26526,101 @@
       <c r="A522" s="2" t="n">
         <v>44682</v>
       </c>
-      <c r="B522" t="inlineStr"/>
-      <c r="C522" t="inlineStr"/>
-      <c r="D522" t="inlineStr"/>
-      <c r="E522" t="inlineStr"/>
-      <c r="F522" t="inlineStr"/>
-      <c r="G522" t="inlineStr"/>
-      <c r="H522" t="inlineStr"/>
-      <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
-      <c r="M522" t="inlineStr"/>
-      <c r="N522" t="inlineStr"/>
-      <c r="O522" t="inlineStr"/>
-      <c r="P522" t="inlineStr"/>
+      <c r="B522" t="n">
+        <v>13</v>
+      </c>
+      <c r="C522" t="n">
+        <v>22</v>
+      </c>
+      <c r="D522" t="n">
+        <v>19</v>
+      </c>
+      <c r="E522" t="n">
+        <v>-33</v>
+      </c>
+      <c r="F522" t="n">
+        <v>11</v>
+      </c>
+      <c r="G522" t="n">
+        <v>-60</v>
+      </c>
+      <c r="H522" t="n">
+        <v>-23</v>
+      </c>
+      <c r="I522" t="n">
+        <v>-38</v>
+      </c>
+      <c r="J522" t="n">
+        <v>9</v>
+      </c>
+      <c r="K522" t="n">
+        <v>21</v>
+      </c>
+      <c r="L522" t="n">
+        <v>-16</v>
+      </c>
+      <c r="M522" t="n">
+        <v>0</v>
+      </c>
+      <c r="N522" t="n">
+        <v>5</v>
+      </c>
+      <c r="O522" t="n">
+        <v>14</v>
+      </c>
+      <c r="P522" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
         <v>44713</v>
       </c>
-      <c r="B523" t="inlineStr"/>
-      <c r="C523" t="inlineStr"/>
-      <c r="D523" t="inlineStr"/>
-      <c r="E523" t="inlineStr"/>
-      <c r="F523" t="inlineStr"/>
-      <c r="G523" t="inlineStr"/>
-      <c r="H523" t="inlineStr"/>
-      <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
-      <c r="M523" t="inlineStr"/>
-      <c r="N523" t="inlineStr"/>
-      <c r="O523" t="inlineStr"/>
-      <c r="P523" t="inlineStr"/>
+      <c r="B523" t="n">
+        <v>46</v>
+      </c>
+      <c r="C523" t="n">
+        <v>11</v>
+      </c>
+      <c r="D523" t="n">
+        <v>52</v>
+      </c>
+      <c r="E523" t="n">
+        <v>25</v>
+      </c>
+      <c r="F523" t="n">
+        <v>29</v>
+      </c>
+      <c r="G523" t="n">
+        <v>-8</v>
+      </c>
+      <c r="H523" t="n">
+        <v>-30</v>
+      </c>
+      <c r="I523" t="n">
+        <v>22</v>
+      </c>
+      <c r="J523" t="n">
+        <v>25</v>
+      </c>
+      <c r="K523" t="n">
+        <v>46</v>
+      </c>
+      <c r="L523" t="n">
+        <v>-7</v>
+      </c>
+      <c r="M523" t="n">
+        <v>8</v>
+      </c>
+      <c r="N523" t="n">
+        <v>23</v>
+      </c>
+      <c r="O523" t="n">
+        <v>29</v>
+      </c>
+      <c r="P523" t="n">
+        <v>-9</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
@@ -26716,21 +26776,51 @@
       <c r="A527" s="2" t="n">
         <v>44835</v>
       </c>
-      <c r="B527" t="inlineStr"/>
-      <c r="C527" t="inlineStr"/>
-      <c r="D527" t="inlineStr"/>
-      <c r="E527" t="inlineStr"/>
-      <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr"/>
-      <c r="H527" t="inlineStr"/>
-      <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
-      <c r="M527" t="inlineStr"/>
-      <c r="N527" t="inlineStr"/>
-      <c r="O527" t="inlineStr"/>
-      <c r="P527" t="inlineStr"/>
+      <c r="B527" t="n">
+        <v>-24</v>
+      </c>
+      <c r="C527" t="n">
+        <v>14</v>
+      </c>
+      <c r="D527" t="n">
+        <v>-23</v>
+      </c>
+      <c r="E527" t="n">
+        <v>-44</v>
+      </c>
+      <c r="F527" t="n">
+        <v>-23</v>
+      </c>
+      <c r="G527" t="n">
+        <v>-21</v>
+      </c>
+      <c r="H527" t="n">
+        <v>7</v>
+      </c>
+      <c r="I527" t="n">
+        <v>-28</v>
+      </c>
+      <c r="J527" t="n">
+        <v>-10</v>
+      </c>
+      <c r="K527" t="n">
+        <v>-15</v>
+      </c>
+      <c r="L527" t="n">
+        <v>-3</v>
+      </c>
+      <c r="M527" t="n">
+        <v>-9</v>
+      </c>
+      <c r="N527" t="n">
+        <v>-21</v>
+      </c>
+      <c r="O527" t="n">
+        <v>-3</v>
+      </c>
+      <c r="P527" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
@@ -26937,49 +27027,99 @@
         <v>44986</v>
       </c>
       <c r="B532" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C532" t="n">
-        <v>-20</v>
+        <v>-4</v>
       </c>
       <c r="D532" t="n">
+        <v>20</v>
+      </c>
+      <c r="E532" t="n">
+        <v>59</v>
+      </c>
+      <c r="F532" t="n">
         <v>15</v>
       </c>
-      <c r="E532" t="n">
-        <v>27</v>
-      </c>
-      <c r="F532" t="n">
-        <v>54</v>
-      </c>
       <c r="G532" t="n">
-        <v>-58</v>
+        <v>5</v>
       </c>
       <c r="H532" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="I532" t="n">
-        <v>-72</v>
+        <v>-30</v>
       </c>
       <c r="J532" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="K532" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L532" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="M532" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N532" t="n">
+        <v>18</v>
+      </c>
+      <c r="O532" t="n">
+        <v>1</v>
+      </c>
+      <c r="P532" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B533" t="n">
+        <v>-4</v>
+      </c>
+      <c r="C533" t="n">
+        <v>-37</v>
+      </c>
+      <c r="D533" t="n">
+        <v>4</v>
+      </c>
+      <c r="E533" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F533" t="n">
+        <v>-13</v>
+      </c>
+      <c r="G533" t="n">
         <v>7</v>
       </c>
-      <c r="O532" t="n">
-        <v>8</v>
-      </c>
-      <c r="P532" t="n">
-        <v>-41</v>
+      <c r="H533" t="n">
+        <v>-31</v>
+      </c>
+      <c r="I533" t="n">
+        <v>38</v>
+      </c>
+      <c r="J533" t="n">
+        <v>5</v>
+      </c>
+      <c r="K533" t="n">
+        <v>7</v>
+      </c>
+      <c r="L533" t="n">
+        <v>-29</v>
+      </c>
+      <c r="M533" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N533" t="n">
+        <v>-10</v>
+      </c>
+      <c r="O533" t="n">
+        <v>14</v>
+      </c>
+      <c r="P533" t="n">
+        <v>-54</v>
       </c>
     </row>
   </sheetData>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P533"/>
+  <dimension ref="A1:P539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27077,49 +27077,349 @@
         <v>45017</v>
       </c>
       <c r="B533" t="n">
-        <v>-4</v>
+        <v>-18</v>
       </c>
       <c r="C533" t="n">
-        <v>-37</v>
+        <v>-32</v>
       </c>
       <c r="D533" t="n">
+        <v>-14</v>
+      </c>
+      <c r="E533" t="n">
+        <v>-29</v>
+      </c>
+      <c r="F533" t="n">
         <v>4</v>
       </c>
-      <c r="E533" t="n">
+      <c r="G533" t="n">
+        <v>-26</v>
+      </c>
+      <c r="H533" t="n">
+        <v>-21</v>
+      </c>
+      <c r="I533" t="n">
+        <v>-6</v>
+      </c>
+      <c r="J533" t="n">
+        <v>6</v>
+      </c>
+      <c r="K533" t="n">
+        <v>0</v>
+      </c>
+      <c r="L533" t="n">
+        <v>-24</v>
+      </c>
+      <c r="M533" t="n">
+        <v>-7</v>
+      </c>
+      <c r="N533" t="n">
+        <v>-19</v>
+      </c>
+      <c r="O533" t="n">
+        <v>4</v>
+      </c>
+      <c r="P533" t="n">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B534" t="n">
+        <v>2</v>
+      </c>
+      <c r="C534" t="n">
+        <v>-23</v>
+      </c>
+      <c r="D534" t="n">
+        <v>17</v>
+      </c>
+      <c r="E534" t="n">
+        <v>-60</v>
+      </c>
+      <c r="F534" t="n">
+        <v>16</v>
+      </c>
+      <c r="G534" t="n">
+        <v>-72</v>
+      </c>
+      <c r="H534" t="n">
+        <v>-86</v>
+      </c>
+      <c r="I534" t="n">
+        <v>13</v>
+      </c>
+      <c r="J534" t="n">
+        <v>25</v>
+      </c>
+      <c r="K534" t="n">
+        <v>37</v>
+      </c>
+      <c r="L534" t="n">
+        <v>-82</v>
+      </c>
+      <c r="M534" t="n">
+        <v>2</v>
+      </c>
+      <c r="N534" t="n">
+        <v>-8</v>
+      </c>
+      <c r="O534" t="n">
+        <v>24</v>
+      </c>
+      <c r="P534" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B535" t="n">
+        <v>-39</v>
+      </c>
+      <c r="C535" t="n">
+        <v>-34</v>
+      </c>
+      <c r="D535" t="n">
+        <v>-36</v>
+      </c>
+      <c r="E535" t="n">
+        <v>-64</v>
+      </c>
+      <c r="F535" t="n">
+        <v>43</v>
+      </c>
+      <c r="G535" t="n">
+        <v>-67</v>
+      </c>
+      <c r="H535" t="n">
+        <v>-40</v>
+      </c>
+      <c r="I535" t="n">
+        <v>-28</v>
+      </c>
+      <c r="J535" t="n">
+        <v>-19</v>
+      </c>
+      <c r="K535" t="n">
+        <v>-28</v>
+      </c>
+      <c r="L535" t="n">
+        <v>-56</v>
+      </c>
+      <c r="M535" t="n">
+        <v>-11</v>
+      </c>
+      <c r="N535" t="n">
+        <v>-27</v>
+      </c>
+      <c r="O535" t="n">
+        <v>-9</v>
+      </c>
+      <c r="P535" t="n">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B536" t="n">
+        <v>16</v>
+      </c>
+      <c r="C536" t="n">
+        <v>19</v>
+      </c>
+      <c r="D536" t="n">
+        <v>11</v>
+      </c>
+      <c r="E536" t="n">
+        <v>83</v>
+      </c>
+      <c r="F536" t="n">
+        <v>49</v>
+      </c>
+      <c r="G536" t="n">
+        <v>77</v>
+      </c>
+      <c r="H536" t="n">
+        <v>46</v>
+      </c>
+      <c r="I536" t="n">
+        <v>30</v>
+      </c>
+      <c r="J536" t="n">
+        <v>-22</v>
+      </c>
+      <c r="K536" t="n">
+        <v>-16</v>
+      </c>
+      <c r="L536" t="n">
+        <v>44</v>
+      </c>
+      <c r="M536" t="n">
+        <v>8</v>
+      </c>
+      <c r="N536" t="n">
+        <v>23</v>
+      </c>
+      <c r="O536" t="n">
+        <v>-12</v>
+      </c>
+      <c r="P536" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B537" t="n">
+        <v>18</v>
+      </c>
+      <c r="C537" t="n">
+        <v>4</v>
+      </c>
+      <c r="D537" t="n">
+        <v>22</v>
+      </c>
+      <c r="E537" t="n">
+        <v>49</v>
+      </c>
+      <c r="F537" t="n">
+        <v>7</v>
+      </c>
+      <c r="G537" t="n">
+        <v>61</v>
+      </c>
+      <c r="H537" t="n">
+        <v>45</v>
+      </c>
+      <c r="I537" t="n">
+        <v>16</v>
+      </c>
+      <c r="J537" t="n">
+        <v>-14</v>
+      </c>
+      <c r="K537" t="n">
+        <v>4</v>
+      </c>
+      <c r="L537" t="n">
+        <v>45</v>
+      </c>
+      <c r="M537" t="n">
+        <v>4</v>
+      </c>
+      <c r="N537" t="n">
+        <v>10</v>
+      </c>
+      <c r="O537" t="n">
+        <v>11</v>
+      </c>
+      <c r="P537" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B538" t="n">
+        <v>9</v>
+      </c>
+      <c r="C538" t="n">
+        <v>24</v>
+      </c>
+      <c r="D538" t="n">
+        <v>15</v>
+      </c>
+      <c r="E538" t="n">
+        <v>-11</v>
+      </c>
+      <c r="F538" t="n">
+        <v>16</v>
+      </c>
+      <c r="G538" t="n">
+        <v>-6</v>
+      </c>
+      <c r="H538" t="n">
         <v>-1</v>
       </c>
-      <c r="F533" t="n">
-        <v>-13</v>
-      </c>
-      <c r="G533" t="n">
-        <v>7</v>
-      </c>
-      <c r="H533" t="n">
-        <v>-31</v>
-      </c>
-      <c r="I533" t="n">
-        <v>38</v>
-      </c>
-      <c r="J533" t="n">
+      <c r="I538" t="n">
+        <v>-5</v>
+      </c>
+      <c r="J538" t="n">
+        <v>2</v>
+      </c>
+      <c r="K538" t="n">
+        <v>15</v>
+      </c>
+      <c r="L538" t="n">
         <v>5</v>
       </c>
-      <c r="K533" t="n">
-        <v>7</v>
-      </c>
-      <c r="L533" t="n">
-        <v>-29</v>
-      </c>
-      <c r="M533" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N533" t="n">
-        <v>-10</v>
-      </c>
-      <c r="O533" t="n">
-        <v>14</v>
-      </c>
-      <c r="P533" t="n">
-        <v>-54</v>
+      <c r="M538" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N538" t="n">
+        <v>-2</v>
+      </c>
+      <c r="O538" t="n">
+        <v>17</v>
+      </c>
+      <c r="P538" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B539" t="n">
+        <v>17</v>
+      </c>
+      <c r="C539" t="n">
+        <v>55</v>
+      </c>
+      <c r="D539" t="n">
+        <v>31</v>
+      </c>
+      <c r="E539" t="n">
+        <v>57</v>
+      </c>
+      <c r="F539" t="n">
+        <v>4</v>
+      </c>
+      <c r="G539" t="n">
+        <v>80</v>
+      </c>
+      <c r="H539" t="n">
+        <v>58</v>
+      </c>
+      <c r="I539" t="n">
+        <v>22</v>
+      </c>
+      <c r="J539" t="n">
+        <v>-25</v>
+      </c>
+      <c r="K539" t="n">
+        <v>11</v>
+      </c>
+      <c r="L539" t="n">
+        <v>54</v>
+      </c>
+      <c r="M539" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N539" t="n">
+        <v>8</v>
+      </c>
+      <c r="O539" t="n">
+        <v>22</v>
+      </c>
+      <c r="P539" t="n">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -27377,49 +27377,49 @@
         <v>45200</v>
       </c>
       <c r="B539" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C539" t="n">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D539" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E539" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F539" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G539" t="n">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H539" t="n">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="I539" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J539" t="n">
-        <v>-25</v>
+        <v>-11</v>
       </c>
       <c r="K539" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="L539" t="n">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="M539" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N539" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="O539" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P539" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -27377,49 +27377,49 @@
         <v>45200</v>
       </c>
       <c r="B539" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C539" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D539" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E539" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F539" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G539" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H539" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I539" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J539" t="n">
         <v>-11</v>
       </c>
       <c r="K539" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="L539" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="M539" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N539" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="O539" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="P539" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -27377,49 +27377,49 @@
         <v>45200</v>
       </c>
       <c r="B539" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C539" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D539" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E539" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="F539" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G539" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H539" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I539" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J539" t="n">
         <v>-11</v>
       </c>
       <c r="K539" t="n">
+        <v>11</v>
+      </c>
+      <c r="L539" t="n">
         <v>14</v>
       </c>
-      <c r="L539" t="n">
-        <v>29</v>
-      </c>
       <c r="M539" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="N539" t="n">
-        <v>6</v>
+        <v>-3</v>
       </c>
       <c r="O539" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="P539" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P539"/>
+  <dimension ref="A1:P540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27422,6 +27422,56 @@
         <v>16</v>
       </c>
     </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B540" t="n">
+        <v>-48</v>
+      </c>
+      <c r="C540" t="n">
+        <v>-53</v>
+      </c>
+      <c r="D540" t="n">
+        <v>-63</v>
+      </c>
+      <c r="E540" t="n">
+        <v>-20</v>
+      </c>
+      <c r="F540" t="n">
+        <v>-21</v>
+      </c>
+      <c r="G540" t="n">
+        <v>61</v>
+      </c>
+      <c r="H540" t="n">
+        <v>9</v>
+      </c>
+      <c r="I540" t="n">
+        <v>52</v>
+      </c>
+      <c r="J540" t="n">
+        <v>-15</v>
+      </c>
+      <c r="K540" t="n">
+        <v>-56</v>
+      </c>
+      <c r="L540" t="n">
+        <v>-6</v>
+      </c>
+      <c r="M540" t="n">
+        <v>-6</v>
+      </c>
+      <c r="N540" t="n">
+        <v>-27</v>
+      </c>
+      <c r="O540" t="n">
+        <v>-37</v>
+      </c>
+      <c r="P540" t="n">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -27427,49 +27427,49 @@
         <v>45231</v>
       </c>
       <c r="B540" t="n">
-        <v>-48</v>
+        <v>-17</v>
       </c>
       <c r="C540" t="n">
-        <v>-53</v>
+        <v>-6</v>
       </c>
       <c r="D540" t="n">
-        <v>-63</v>
+        <v>-22</v>
       </c>
       <c r="E540" t="n">
-        <v>-20</v>
+        <v>-17</v>
       </c>
       <c r="F540" t="n">
-        <v>-21</v>
+        <v>-10</v>
       </c>
       <c r="G540" t="n">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="H540" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="I540" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="J540" t="n">
-        <v>-15</v>
+        <v>-9</v>
       </c>
       <c r="K540" t="n">
-        <v>-56</v>
+        <v>-19</v>
       </c>
       <c r="L540" t="n">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="M540" t="n">
         <v>-6</v>
       </c>
       <c r="N540" t="n">
-        <v>-27</v>
+        <v>-13</v>
       </c>
       <c r="O540" t="n">
-        <v>-37</v>
+        <v>-10</v>
       </c>
       <c r="P540" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -27427,49 +27427,49 @@
         <v>45231</v>
       </c>
       <c r="B540" t="n">
+        <v>-23</v>
+      </c>
+      <c r="C540" t="n">
+        <v>-13</v>
+      </c>
+      <c r="D540" t="n">
+        <v>-29</v>
+      </c>
+      <c r="E540" t="n">
+        <v>-19</v>
+      </c>
+      <c r="F540" t="n">
+        <v>-22</v>
+      </c>
+      <c r="G540" t="n">
+        <v>33</v>
+      </c>
+      <c r="H540" t="n">
+        <v>4</v>
+      </c>
+      <c r="I540" t="n">
+        <v>29</v>
+      </c>
+      <c r="J540" t="n">
+        <v>-16</v>
+      </c>
+      <c r="K540" t="n">
+        <v>-27</v>
+      </c>
+      <c r="L540" t="n">
+        <v>-7</v>
+      </c>
+      <c r="M540" t="n">
+        <v>-7</v>
+      </c>
+      <c r="N540" t="n">
         <v>-17</v>
       </c>
-      <c r="C540" t="n">
-        <v>-6</v>
-      </c>
-      <c r="D540" t="n">
-        <v>-22</v>
-      </c>
-      <c r="E540" t="n">
-        <v>-17</v>
-      </c>
-      <c r="F540" t="n">
-        <v>-10</v>
-      </c>
-      <c r="G540" t="n">
-        <v>21</v>
-      </c>
-      <c r="H540" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I540" t="n">
-        <v>22</v>
-      </c>
-      <c r="J540" t="n">
-        <v>-9</v>
-      </c>
-      <c r="K540" t="n">
-        <v>-19</v>
-      </c>
-      <c r="L540" t="n">
-        <v>-8</v>
-      </c>
-      <c r="M540" t="n">
-        <v>-6</v>
-      </c>
-      <c r="N540" t="n">
-        <v>-13</v>
-      </c>
       <c r="O540" t="n">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="P540" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -27427,37 +27427,37 @@
         <v>45231</v>
       </c>
       <c r="B540" t="n">
-        <v>-23</v>
+        <v>-24</v>
       </c>
       <c r="C540" t="n">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="D540" t="n">
-        <v>-29</v>
+        <v>-30</v>
       </c>
       <c r="E540" t="n">
-        <v>-19</v>
+        <v>-14</v>
       </c>
       <c r="F540" t="n">
-        <v>-22</v>
+        <v>-33</v>
       </c>
       <c r="G540" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H540" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I540" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J540" t="n">
         <v>-16</v>
       </c>
       <c r="K540" t="n">
-        <v>-27</v>
+        <v>-29</v>
       </c>
       <c r="L540" t="n">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="M540" t="n">
         <v>-7</v>
@@ -27466,7 +27466,7 @@
         <v>-17</v>
       </c>
       <c r="O540" t="n">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="P540" t="n">
         <v>11</v>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P540"/>
+  <dimension ref="A1:P541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27472,6 +27472,56 @@
         <v>11</v>
       </c>
     </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B541" t="n">
+        <v>-18</v>
+      </c>
+      <c r="C541" t="n">
+        <v>48</v>
+      </c>
+      <c r="D541" t="n">
+        <v>-8</v>
+      </c>
+      <c r="E541" t="n">
+        <v>-25</v>
+      </c>
+      <c r="F541" t="n">
+        <v>-23</v>
+      </c>
+      <c r="G541" t="n">
+        <v>7</v>
+      </c>
+      <c r="H541" t="n">
+        <v>-6</v>
+      </c>
+      <c r="I541" t="n">
+        <v>13</v>
+      </c>
+      <c r="J541" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K541" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L541" t="n">
+        <v>-13</v>
+      </c>
+      <c r="M541" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N541" t="n">
+        <v>-17</v>
+      </c>
+      <c r="O541" t="n">
+        <v>9</v>
+      </c>
+      <c r="P541" t="n">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -27477,49 +27477,49 @@
         <v>45261</v>
       </c>
       <c r="B541" t="n">
-        <v>-18</v>
+        <v>1</v>
       </c>
       <c r="C541" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D541" t="n">
-        <v>-8</v>
+        <v>7</v>
       </c>
       <c r="E541" t="n">
-        <v>-25</v>
+        <v>9</v>
       </c>
       <c r="F541" t="n">
-        <v>-23</v>
+        <v>-12</v>
       </c>
       <c r="G541" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H541" t="n">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="I541" t="n">
+        <v>8</v>
+      </c>
+      <c r="J541" t="n">
+        <v>-11</v>
+      </c>
+      <c r="K541" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L541" t="n">
         <v>13</v>
       </c>
-      <c r="J541" t="n">
-        <v>-3</v>
-      </c>
-      <c r="K541" t="n">
+      <c r="M541" t="n">
         <v>-1</v>
       </c>
-      <c r="L541" t="n">
-        <v>-13</v>
-      </c>
-      <c r="M541" t="n">
-        <v>-3</v>
-      </c>
       <c r="N541" t="n">
-        <v>-17</v>
+        <v>-2</v>
       </c>
       <c r="O541" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P541" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -27477,49 +27477,49 @@
         <v>45261</v>
       </c>
       <c r="B541" t="n">
+        <v>-3</v>
+      </c>
+      <c r="C541" t="n">
+        <v>23</v>
+      </c>
+      <c r="D541" t="n">
         <v>1</v>
       </c>
-      <c r="C541" t="n">
-        <v>53</v>
-      </c>
-      <c r="D541" t="n">
-        <v>7</v>
-      </c>
       <c r="E541" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F541" t="n">
+        <v>-29</v>
+      </c>
+      <c r="G541" t="n">
         <v>9</v>
       </c>
-      <c r="F541" t="n">
-        <v>-12</v>
-      </c>
-      <c r="G541" t="n">
-        <v>22</v>
-      </c>
       <c r="H541" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I541" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J541" t="n">
-        <v>-11</v>
+        <v>-5</v>
       </c>
       <c r="K541" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="L541" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="M541" t="n">
         <v>-1</v>
       </c>
       <c r="N541" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="O541" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P541" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -27477,49 +27477,49 @@
         <v>45261</v>
       </c>
       <c r="B541" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="C541" t="n">
         <v>23</v>
       </c>
       <c r="D541" t="n">
+        <v>5</v>
+      </c>
+      <c r="E541" t="n">
+        <v>3</v>
+      </c>
+      <c r="F541" t="n">
+        <v>-27</v>
+      </c>
+      <c r="G541" t="n">
+        <v>12</v>
+      </c>
+      <c r="H541" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I541" t="n">
+        <v>14</v>
+      </c>
+      <c r="J541" t="n">
+        <v>-3</v>
+      </c>
+      <c r="K541" t="n">
         <v>1</v>
       </c>
-      <c r="E541" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F541" t="n">
-        <v>-29</v>
-      </c>
-      <c r="G541" t="n">
-        <v>9</v>
-      </c>
-      <c r="H541" t="n">
+      <c r="L541" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M541" t="n">
+        <v>1</v>
+      </c>
+      <c r="N541" t="n">
         <v>0</v>
       </c>
-      <c r="I541" t="n">
-        <v>9</v>
-      </c>
-      <c r="J541" t="n">
-        <v>-5</v>
-      </c>
-      <c r="K541" t="n">
-        <v>-3</v>
-      </c>
-      <c r="L541" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M541" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N541" t="n">
-        <v>-3</v>
-      </c>
       <c r="O541" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P541" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P541"/>
+  <dimension ref="A1:P542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27522,6 +27522,56 @@
         <v>28</v>
       </c>
     </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B542" t="n">
+        <v>-31</v>
+      </c>
+      <c r="C542" t="n">
+        <v>15</v>
+      </c>
+      <c r="D542" t="n">
+        <v>-30</v>
+      </c>
+      <c r="E542" t="n">
+        <v>-27</v>
+      </c>
+      <c r="F542" t="n">
+        <v>-26</v>
+      </c>
+      <c r="G542" t="n">
+        <v>12</v>
+      </c>
+      <c r="H542" t="n">
+        <v>7</v>
+      </c>
+      <c r="I542" t="n">
+        <v>5</v>
+      </c>
+      <c r="J542" t="n">
+        <v>-12</v>
+      </c>
+      <c r="K542" t="n">
+        <v>-22</v>
+      </c>
+      <c r="L542" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M542" t="n">
+        <v>-8</v>
+      </c>
+      <c r="N542" t="n">
+        <v>-21</v>
+      </c>
+      <c r="O542" t="n">
+        <v>-9</v>
+      </c>
+      <c r="P542" t="n">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/trenberth_figures/data/updated_trenberth_index.xlsx
+++ b/trenberth_figures/data/updated_trenberth_index.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P542"/>
+  <dimension ref="A1:P541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27522,56 +27522,6 @@
         <v>28</v>
       </c>
     </row>
-    <row r="542">
-      <c r="A542" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="B542" t="n">
-        <v>-31</v>
-      </c>
-      <c r="C542" t="n">
-        <v>15</v>
-      </c>
-      <c r="D542" t="n">
-        <v>-30</v>
-      </c>
-      <c r="E542" t="n">
-        <v>-27</v>
-      </c>
-      <c r="F542" t="n">
-        <v>-26</v>
-      </c>
-      <c r="G542" t="n">
-        <v>12</v>
-      </c>
-      <c r="H542" t="n">
-        <v>7</v>
-      </c>
-      <c r="I542" t="n">
-        <v>5</v>
-      </c>
-      <c r="J542" t="n">
-        <v>-12</v>
-      </c>
-      <c r="K542" t="n">
-        <v>-22</v>
-      </c>
-      <c r="L542" t="n">
-        <v>-5</v>
-      </c>
-      <c r="M542" t="n">
-        <v>-8</v>
-      </c>
-      <c r="N542" t="n">
-        <v>-21</v>
-      </c>
-      <c r="O542" t="n">
-        <v>-9</v>
-      </c>
-      <c r="P542" t="n">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
